--- a/my-app/static/downloads-excel/Reporte_accesos_0123456789_2023_11_28.xlsx
+++ b/my-app/static/downloads-excel/Reporte_accesos_0123456789_2023_11_28.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,11 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>ÁREA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>CLAVE GENERADA</t>
         </is>
       </c>
@@ -460,6 +465,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>9QMqwY</t>
         </is>
       </c>
@@ -478,6 +488,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>3D9AlD</t>
         </is>
       </c>
@@ -496,6 +511,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>123</t>
         </is>
       </c>
@@ -513,6 +533,11 @@
         <v>45250</v>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>123</t>
         </is>
